--- a/assets/ejercicio.xlsx
+++ b/assets/ejercicio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Universidad\Sexto Semestre\Probabilidad\MapaHtml\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B224CBD6-5A85-4CA4-AA17-8446F14BA5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3FBBE0-0F70-4584-8D52-1BCCABA214A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9C51171-188E-485A-BEB1-E5538A424F43}"/>
+    <workbookView xWindow="2715" yWindow="3900" windowWidth="21600" windowHeight="11385" xr2:uid="{E9C51171-188E-485A-BEB1-E5538A424F43}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio" sheetId="1" r:id="rId1"/>
@@ -541,25 +541,175 @@
     <xf numFmtId="165" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -570,156 +720,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,18 +745,19 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="107"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="7"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="15"/>
       <c:rotY val="20"/>
-      <c:rAngAx val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -792,25 +793,17 @@
       </c:spPr>
     </c:backWall>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.8275632401243166E-2"/>
-          <c:y val="5.2159277110849465E-2"/>
-          <c:w val="0.88580565807239964"/>
-          <c:h val="0.87305510760696792"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:surface3DChart>
-        <c:wireframe val="0"/>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ejercicio!$B$1</c:f>
+              <c:f>[1]Hoja1!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -820,96 +813,43 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:shade val="53000"/>
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:shade val="53000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:shade val="53000"/>
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
-          <c:cat>
+          <c:invertIfNegative val="0"/>
+          <c:val>
             <c:numRef>
-              <c:f>Ejercicio!$A$2:$A$7</c:f>
+              <c:f>[1]Hoja1!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Ejercicio!$B$2:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-100F-4FFE-BDAB-7176A5B8A3B3}"/>
+              <c16:uniqueId val="{00000000-F414-456F-A8CC-D82BCC1687EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -917,99 +857,54 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2</c:v>
+            <c:strRef>
+              <c:f>[1]Hoja1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:shade val="76000"/>
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:shade val="76000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:shade val="76000"/>
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
-          <c:cat>
+          <c:invertIfNegative val="0"/>
+          <c:val>
             <c:numRef>
-              <c:f>Ejercicio!$A$2:$A$7</c:f>
+              <c:f>[1]Hoja1!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Ejercicio!$C$2:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-100F-4FFE-BDAB-7176A5B8A3B3}"/>
+              <c16:uniqueId val="{00000001-F414-456F-A8CC-D82BCC1687EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1017,96 +912,54 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>3</c:v>
+            <c:strRef>
+              <c:f>[1]Hoja1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
-          <c:cat>
+          <c:invertIfNegative val="0"/>
+          <c:val>
             <c:numRef>
-              <c:f>Ejercicio!$A$2:$A$7</c:f>
+              <c:f>[1]Hoja1!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Ejercicio!$D$2:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-100F-4FFE-BDAB-7176A5B8A3B3}"/>
+              <c16:uniqueId val="{00000002-F414-456F-A8CC-D82BCC1687EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1114,99 +967,54 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>4</c:v>
+            <c:strRef>
+              <c:f>[1]Hoja1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:tint val="77000"/>
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:tint val="77000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:tint val="77000"/>
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
-          <c:cat>
+          <c:invertIfNegative val="0"/>
+          <c:val>
             <c:numRef>
-              <c:f>Ejercicio!$A$2:$A$7</c:f>
+              <c:f>[1]Hoja1!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Ejercicio!$E$2:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-100F-4FFE-BDAB-7176A5B8A3B3}"/>
+              <c16:uniqueId val="{00000003-F414-456F-A8CC-D82BCC1687EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1214,91 +1022,101 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>5</c:v>
+            <c:strRef>
+              <c:f>[1]Hoja1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:tint val="54000"/>
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:tint val="54000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:tint val="54000"/>
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
-          <c:cat>
+          <c:invertIfNegative val="0"/>
+          <c:val>
             <c:numRef>
-              <c:f>Ejercicio!$A$2:$A$7</c:f>
+              <c:f>[1]Hoja1!$B$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Ejercicio!$F$2:$F$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="5">
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F414-456F-A8CC-D82BCC1687EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Hoja1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Hoja1!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
@@ -1306,570 +1124,26 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-100F-4FFE-BDAB-7176A5B8A3B3}"/>
+              <c16:uniqueId val="{00000005-F414-456F-A8CC-D82BCC1687EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:bandFmts>
-          <c:bandFmt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:shade val="44000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:shade val="44000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:shade val="44000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:shade val="58000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:shade val="58000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:shade val="58000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:shade val="72000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:shade val="72000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:shade val="72000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:shade val="86000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:shade val="86000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:shade val="86000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="86000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="86000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="86000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="72000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="72000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="72000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="7"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="58000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="58000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="58000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="8"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="44000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="44000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="44000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="9"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="30000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="30000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="30000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="10"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="16000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="16000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="16000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="11"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="2000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="2000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="2000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="12"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="88000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="88000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="88000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="13"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="74000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="74000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="74000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="14"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-        </c:bandFmts>
-        <c:axId val="258652335"/>
-        <c:axId val="258652751"/>
-        <c:axId val="405311839"/>
-      </c:surface3DChart>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1186942080"/>
+        <c:axId val="1186946240"/>
+        <c:axId val="1189533408"/>
+      </c:bar3DChart>
       <c:catAx>
-        <c:axId val="258652335"/>
+        <c:axId val="1186942080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1882,9 +1156,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1906,21 +1183,34 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1931,7 +1221,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1941,7 +1234,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258652751"/>
+        <c:crossAx val="1186946240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1949,7 +1242,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="258652751"/>
+        <c:axId val="1186946240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1959,7 +1252,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx2">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1976,9 +1269,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1987,7 +1283,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-CO"/>
-                  <a:t>F(x,y) = 2x + 5y</a:t>
+                  <a:t>f(x,y) = 2x + 5y</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2000,6 +1296,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2019,7 +1335,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2029,12 +1348,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258652335"/>
+        <c:crossAx val="1186942080"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="405311839"/>
+        <c:axId val="1189533408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2043,13 +1362,16 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVert" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2063,6 +1385,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.79105338074104792"/>
+              <c:y val="0.71390204531429713"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2071,20 +1401,34 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2095,7 +1439,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2105,7 +1452,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258652751"/>
+        <c:crossAx val="1186946240"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -2117,7 +1464,7 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2127,6 +1474,21 @@
     </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -2145,27 +1507,561 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>842282</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>4483</xdr:rowOff>
+      <xdr:colOff>884465</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>80</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>4482</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B866C760-AB1E-4741-A81E-4666298380E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A56851A-8056-4E26-8CA2-1BA4B9F4C178}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2204,11 +2100,6 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4">
-        <row r="1">
-          <cell r="B1">
-            <v>1</v>
-          </cell>
-        </row>
         <row r="2">
           <cell r="A2">
             <v>1</v>
@@ -2634,8 +2525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31B2214-E965-4A62-B89F-7835A0238F3A}">
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S43" sqref="S43"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3438,777 +3329,777 @@
       </c>
     </row>
     <row r="10" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q10" s="18" t="s">
+      <c r="Q10" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="72"/>
     </row>
     <row r="12" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="20">
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="18">
         <f>J$1*J$8</f>
         <v>0.1090909090909091</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="19">
         <f>K$1*K$8</f>
         <v>0.30909090909090908</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="19">
         <f>L$1*L$8</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="19">
         <f>M$1*M$8</f>
         <v>0.98181818181818181</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="20">
         <f>N$1*N$8</f>
         <v>1.4545454545454546</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="21">
         <f>SUM(J12:N12)</f>
         <v>3.4545454545454546</v>
       </c>
-      <c r="Q12" s="24" t="s">
+      <c r="Q12" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="R12" s="25" t="s">
+      <c r="R12" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="27"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="77"/>
     </row>
     <row r="13" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="28">
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="22">
         <f>(J1-$O$12)^2*J$8</f>
         <v>0.65725018782870026</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="23">
         <f>(K1-$O$12)^2*K$8</f>
         <v>0.32697220135236665</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="23">
         <f>(L1-$O$12)^2*L$8</f>
         <v>4.1322314049586785E-2</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="23">
         <f>(M1-$O$12)^2*M$8</f>
         <v>7.3027798647633341E-2</v>
       </c>
-      <c r="N13" s="30">
+      <c r="N13" s="24">
         <f>(N1-$O$12)^2*N$8</f>
         <v>0.69481592787377899</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="21">
         <f>SUM(J13:N13)</f>
         <v>1.7933884297520661</v>
       </c>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="32">
+      <c r="Q13" s="74"/>
+      <c r="R13" s="25">
         <f>(J1-$O$12)</f>
         <v>-2.4545454545454546</v>
       </c>
-      <c r="S13" s="33">
+      <c r="S13" s="26">
         <f t="shared" ref="S13:T13" si="10">(K1-$O$12)</f>
         <v>-1.4545454545454546</v>
       </c>
-      <c r="T13" s="33">
+      <c r="T13" s="26">
         <f t="shared" si="10"/>
         <v>-0.45454545454545459</v>
       </c>
-      <c r="U13" s="33">
+      <c r="U13" s="26">
         <f>(M1-$O$12)</f>
         <v>0.54545454545454541</v>
       </c>
-      <c r="V13" s="34">
+      <c r="V13" s="27">
         <f>(N1-$O$12)</f>
         <v>1.5454545454545454</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="35">
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="28">
         <f>SQRT(O13)</f>
         <v>1.3391745329687488</v>
       </c>
-      <c r="Q14" s="36">
+      <c r="Q14" s="29">
         <f t="shared" ref="Q14:Q19" si="11">($I2-$O$15)</f>
         <v>-2.7651515151515156</v>
       </c>
-      <c r="R14" s="37">
+      <c r="R14" s="30">
         <f t="shared" ref="R14:V19" si="12">$Q14*R$13</f>
         <v>6.7871900826446296</v>
       </c>
-      <c r="S14" s="38">
+      <c r="S14" s="31">
         <f t="shared" si="12"/>
         <v>4.0220385674931141</v>
       </c>
-      <c r="T14" s="38">
+      <c r="T14" s="31">
         <f t="shared" si="12"/>
         <v>1.256887052341598</v>
       </c>
-      <c r="U14" s="38">
+      <c r="U14" s="31">
         <f t="shared" si="12"/>
         <v>-1.5082644628099175</v>
       </c>
-      <c r="V14" s="39">
+      <c r="V14" s="32">
         <f t="shared" si="12"/>
         <v>-4.2734159779614327</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="20">
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="18">
         <f>$I2*$O2</f>
         <v>0.12878787878787878</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="19">
         <f>$I3*$O3</f>
         <v>0.2878787878787879</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="19">
         <f>$I4*$O4</f>
         <v>0.47727272727272729</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="19">
         <f>$I5*$O5</f>
         <v>0.69696969696969702</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="19">
         <f>$I6*$O6</f>
         <v>0.94696969696969702</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="20">
         <f>$I7*$O7</f>
         <v>1.2272727272727273</v>
       </c>
-      <c r="O15" s="41">
+      <c r="O15" s="33">
         <f>SUM(I15:N15)</f>
         <v>3.7651515151515156</v>
       </c>
-      <c r="Q15" s="42">
+      <c r="Q15" s="34">
         <f t="shared" si="11"/>
         <v>-1.7651515151515156</v>
       </c>
-      <c r="R15" s="43">
+      <c r="R15" s="35">
         <f t="shared" si="12"/>
         <v>4.3326446280991746</v>
       </c>
-      <c r="S15" s="44">
+      <c r="S15" s="36">
         <f t="shared" si="12"/>
         <v>2.567493112947659</v>
       </c>
-      <c r="T15" s="44">
+      <c r="T15" s="36">
         <f t="shared" si="12"/>
         <v>0.80234159779614356</v>
       </c>
-      <c r="U15" s="44">
+      <c r="U15" s="36">
         <f t="shared" si="12"/>
         <v>-0.96280991735537202</v>
       </c>
-      <c r="V15" s="45">
+      <c r="V15" s="37">
         <f t="shared" si="12"/>
         <v>-2.7279614325068877</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="46">
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="38">
         <f>($I2-$O$15)^2*$O2</f>
         <v>0.98472022219439603</v>
       </c>
-      <c r="J16" s="47">
+      <c r="J16" s="39">
         <f>($I3-$O$15)^2*$O3</f>
         <v>0.44848058755600101</v>
       </c>
-      <c r="K16" s="47">
+      <c r="K16" s="39">
         <f>($I4-$O$15)^2*$O4</f>
         <v>9.3140861090241361E-2</v>
       </c>
-      <c r="L16" s="47">
+      <c r="L16" s="39">
         <f>($I5-$O$15)^2*$O5</f>
         <v>9.610133706208052E-3</v>
       </c>
-      <c r="M16" s="47">
+      <c r="M16" s="39">
         <f>($I6-$O$15)^2*$O6</f>
         <v>0.28879749631299201</v>
       </c>
-      <c r="N16" s="48">
+      <c r="N16" s="40">
         <f>($I7-$O$15)^2*$O7</f>
         <v>1.0216120398196842</v>
       </c>
-      <c r="O16" s="41">
+      <c r="O16" s="33">
         <f>SUM(I16:N16)</f>
         <v>2.8463613406795227</v>
       </c>
-      <c r="Q16" s="42">
+      <c r="Q16" s="34">
         <f t="shared" si="11"/>
         <v>-0.76515151515151558</v>
       </c>
-      <c r="R16" s="43">
+      <c r="R16" s="35">
         <f t="shared" si="12"/>
         <v>1.87809917355372</v>
       </c>
-      <c r="S16" s="44">
+      <c r="S16" s="36">
         <f t="shared" si="12"/>
         <v>1.1129476584022044</v>
       </c>
-      <c r="T16" s="44">
+      <c r="T16" s="36">
         <f t="shared" si="12"/>
         <v>0.34779614325068892</v>
       </c>
-      <c r="U16" s="44">
+      <c r="U16" s="36">
         <f t="shared" si="12"/>
         <v>-0.41735537190082667</v>
       </c>
-      <c r="V16" s="45">
+      <c r="V16" s="37">
         <f t="shared" si="12"/>
         <v>-1.1825068870523423</v>
       </c>
     </row>
     <row r="17" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="41">
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="33">
         <f>SQRT(O16)</f>
         <v>1.6871162795372234</v>
       </c>
-      <c r="Q17" s="42">
+      <c r="Q17" s="34">
         <f t="shared" si="11"/>
         <v>0.23484848484848442</v>
       </c>
-      <c r="R17" s="43">
+      <c r="R17" s="35">
         <f t="shared" si="12"/>
         <v>-0.57644628099173445</v>
       </c>
-      <c r="S17" s="44">
+      <c r="S17" s="36">
         <f t="shared" si="12"/>
         <v>-0.34159779614325009</v>
       </c>
-      <c r="T17" s="44">
+      <c r="T17" s="36">
         <f t="shared" si="12"/>
         <v>-0.10674931129476566</v>
       </c>
-      <c r="U17" s="44">
+      <c r="U17" s="36">
         <f t="shared" si="12"/>
         <v>0.12809917355371878</v>
       </c>
-      <c r="V17" s="45">
+      <c r="V17" s="37">
         <f t="shared" si="12"/>
         <v>0.36294765840220317</v>
       </c>
     </row>
     <row r="18" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J18" s="49" t="s">
+      <c r="J18" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="50">
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="41">
         <f>W29</f>
         <v>-0.12052341597796143</v>
       </c>
-      <c r="Q18" s="42">
+      <c r="Q18" s="34">
         <f t="shared" si="11"/>
         <v>1.2348484848484844</v>
       </c>
-      <c r="R18" s="43">
+      <c r="R18" s="35">
         <f t="shared" si="12"/>
         <v>-3.0309917355371891</v>
       </c>
-      <c r="S18" s="44">
+      <c r="S18" s="36">
         <f t="shared" si="12"/>
         <v>-1.7961432506887047</v>
       </c>
-      <c r="T18" s="44">
+      <c r="T18" s="36">
         <f t="shared" si="12"/>
         <v>-0.5612947658402202</v>
       </c>
-      <c r="U18" s="44">
+      <c r="U18" s="36">
         <f t="shared" si="12"/>
         <v>0.67355371900826422</v>
       </c>
-      <c r="V18" s="45">
+      <c r="V18" s="37">
         <f t="shared" si="12"/>
         <v>1.9084022038567485</v>
       </c>
     </row>
     <row r="19" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J19" s="51" t="s">
+      <c r="J19" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="52">
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="42">
         <f>W30</f>
         <v>-5.3344449103799083E-2</v>
       </c>
-      <c r="Q19" s="53">
+      <c r="Q19" s="43">
         <f t="shared" si="11"/>
         <v>2.2348484848484844</v>
       </c>
-      <c r="R19" s="54">
+      <c r="R19" s="44">
         <f t="shared" si="12"/>
         <v>-5.4855371900826437</v>
       </c>
-      <c r="S19" s="55">
+      <c r="S19" s="45">
         <f t="shared" si="12"/>
         <v>-3.2506887052341593</v>
       </c>
-      <c r="T19" s="55">
+      <c r="T19" s="45">
         <f t="shared" si="12"/>
         <v>-1.0158402203856749</v>
       </c>
-      <c r="U19" s="55">
+      <c r="U19" s="45">
         <f t="shared" si="12"/>
         <v>1.2190082644628095</v>
       </c>
-      <c r="V19" s="56">
+      <c r="V19" s="46">
         <f t="shared" si="12"/>
         <v>3.4538567493112939</v>
       </c>
     </row>
     <row r="21" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q21" s="24" t="s">
+      <c r="Q21" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="R21" s="57" t="s">
+      <c r="R21" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="S21" s="58"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="60" t="s">
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="61" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q22" s="61"/>
-      <c r="R22" s="62">
+      <c r="Q22" s="71"/>
+      <c r="R22" s="47">
         <f>(J1-$O$12)</f>
         <v>-2.4545454545454546</v>
       </c>
-      <c r="S22" s="63">
+      <c r="S22" s="48">
         <f t="shared" ref="S22:V22" si="13">(K1-$O$12)</f>
         <v>-1.4545454545454546</v>
       </c>
-      <c r="T22" s="63">
+      <c r="T22" s="48">
         <f t="shared" si="13"/>
         <v>-0.45454545454545459</v>
       </c>
-      <c r="U22" s="63">
+      <c r="U22" s="48">
         <f t="shared" si="13"/>
         <v>0.54545454545454541</v>
       </c>
-      <c r="V22" s="64">
+      <c r="V22" s="49">
         <f t="shared" si="13"/>
         <v>1.5454545454545454</v>
       </c>
-      <c r="W22" s="65"/>
+      <c r="W22" s="62"/>
     </row>
     <row r="23" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q23" s="66">
+      <c r="Q23" s="50">
         <f>($I2-$O$15)</f>
         <v>-2.7651515151515156</v>
       </c>
-      <c r="R23" s="44">
+      <c r="R23" s="36">
         <f>R14*J2</f>
         <v>7.1985349361382442E-2</v>
       </c>
-      <c r="S23" s="44">
+      <c r="S23" s="36">
         <f t="shared" ref="S23:V28" si="14">S14*K2</f>
         <v>7.312797395442025E-2</v>
       </c>
-      <c r="T23" s="44">
+      <c r="T23" s="36">
         <f t="shared" si="14"/>
         <v>3.2374363469404796E-2</v>
       </c>
-      <c r="U23" s="44">
+      <c r="U23" s="36">
         <f t="shared" si="14"/>
         <v>-5.027548209366392E-2</v>
       </c>
-      <c r="V23" s="44">
+      <c r="V23" s="36">
         <f>V14*N2</f>
         <v>-0.17482156273478588</v>
       </c>
-      <c r="W23" s="67">
+      <c r="W23" s="51">
         <f t="shared" ref="W23:W28" si="15">SUM(R23:V23)</f>
         <v>-4.7609358043242317E-2</v>
       </c>
     </row>
     <row r="24" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q24" s="68">
+      <c r="Q24" s="52">
         <f t="shared" ref="Q24:Q28" si="16">($I3-$O$15)</f>
         <v>-1.7651515151515156</v>
       </c>
-      <c r="R24" s="44">
+      <c r="R24" s="36">
         <f>R15*J3</f>
         <v>5.9081517655897836E-2</v>
       </c>
-      <c r="S24" s="44">
+      <c r="S24" s="36">
         <f t="shared" si="14"/>
         <v>5.4461975123132167E-2</v>
       </c>
-      <c r="T24" s="44">
+      <c r="T24" s="36">
         <f t="shared" si="14"/>
         <v>2.3097712663828377E-2</v>
       </c>
-      <c r="U24" s="44">
+      <c r="U24" s="36">
         <f t="shared" si="14"/>
         <v>-3.501126972201353E-2</v>
       </c>
-      <c r="V24" s="44">
+      <c r="V24" s="36">
         <f t="shared" si="14"/>
         <v>-0.11986497203439354</v>
       </c>
-      <c r="W24" s="69">
+      <c r="W24" s="53">
         <f t="shared" si="15"/>
         <v>-1.8235036313548697E-2</v>
       </c>
     </row>
     <row r="25" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q25" s="68">
+      <c r="Q25" s="52">
         <f t="shared" si="16"/>
         <v>-0.76515151515151558</v>
       </c>
-      <c r="R25" s="44">
+      <c r="R25" s="36">
         <f t="shared" ref="R25:R28" si="17">R16*J4</f>
         <v>3.1301652892562003E-2</v>
       </c>
-      <c r="S25" s="44">
+      <c r="S25" s="36">
         <f>S16*K4</f>
         <v>2.6980549294598897E-2</v>
       </c>
-      <c r="T25" s="44">
+      <c r="T25" s="36">
         <f t="shared" si="14"/>
         <v>1.1066240921612827E-2</v>
       </c>
-      <c r="U25" s="44">
+      <c r="U25" s="36">
         <f t="shared" si="14"/>
         <v>-1.64412722263962E-2</v>
       </c>
-      <c r="V25" s="44">
+      <c r="V25" s="36">
         <f t="shared" si="14"/>
         <v>-5.5541990149428198E-2</v>
       </c>
-      <c r="W25" s="69">
+      <c r="W25" s="53">
         <f t="shared" si="15"/>
         <v>-2.6348192670506629E-3</v>
       </c>
     </row>
     <row r="26" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q26" s="68">
+      <c r="Q26" s="52">
         <f t="shared" si="16"/>
         <v>0.23484848484848442</v>
       </c>
-      <c r="R26" s="44">
+      <c r="R26" s="36">
         <f t="shared" si="17"/>
         <v>-1.1354244928625072E-2</v>
       </c>
-      <c r="S26" s="44">
+      <c r="S26" s="36">
         <f t="shared" si="14"/>
         <v>-9.316303531179548E-3</v>
       </c>
-      <c r="T26" s="44">
+      <c r="T26" s="36">
         <f>T17*L5</f>
         <v>-3.7200517572418337E-3</v>
       </c>
-      <c r="U26" s="44">
+      <c r="U26" s="36">
         <f t="shared" si="14"/>
         <v>5.4345103931880698E-3</v>
       </c>
-      <c r="V26" s="44">
+      <c r="V26" s="36">
         <f t="shared" si="14"/>
         <v>1.8147382920110158E-2</v>
       </c>
-      <c r="W26" s="69">
+      <c r="W26" s="53">
         <f t="shared" si="15"/>
         <v>-8.0870690374822835E-4</v>
       </c>
     </row>
     <row r="27" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q27" s="68">
+      <c r="Q27" s="52">
         <f t="shared" si="16"/>
         <v>1.2348484848484844</v>
       </c>
-      <c r="R27" s="44">
+      <c r="R27" s="36">
         <f t="shared" si="17"/>
         <v>-6.8886175807663388E-2</v>
       </c>
-      <c r="S27" s="44">
+      <c r="S27" s="36">
         <f t="shared" si="14"/>
         <v>-5.4428583354203176E-2</v>
       </c>
-      <c r="T27" s="44">
+      <c r="T27" s="36">
         <f t="shared" si="14"/>
         <v>-2.1261165372735615E-2</v>
       </c>
-      <c r="U27" s="44">
+      <c r="U27" s="36">
         <f>U18*M6</f>
         <v>3.0616078136739285E-2</v>
       </c>
-      <c r="V27" s="44">
+      <c r="V27" s="36">
         <f t="shared" si="14"/>
         <v>0.10120314717422152</v>
       </c>
-      <c r="W27" s="69">
+      <c r="W27" s="53">
         <f t="shared" si="15"/>
         <v>-1.2756699223641393E-2</v>
       </c>
     </row>
     <row r="28" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q28" s="70">
+      <c r="Q28" s="54">
         <f t="shared" si="16"/>
         <v>2.2348484848484844</v>
       </c>
-      <c r="R28" s="44">
+      <c r="R28" s="36">
         <f t="shared" si="17"/>
         <v>-0.14129413974455293</v>
       </c>
-      <c r="S28" s="44">
+      <c r="S28" s="36">
         <f t="shared" si="14"/>
         <v>-0.10835629017447197</v>
       </c>
-      <c r="T28" s="44">
+      <c r="T28" s="36">
         <f t="shared" si="14"/>
         <v>-4.1557099924868515E-2</v>
       </c>
-      <c r="U28" s="44">
+      <c r="U28" s="36">
         <f t="shared" si="14"/>
         <v>5.9103431004257433E-2</v>
       </c>
-      <c r="V28" s="44">
+      <c r="V28" s="36">
         <f>V19*N7</f>
         <v>0.19362530261290586</v>
       </c>
-      <c r="W28" s="71">
+      <c r="W28" s="55">
         <f t="shared" si="15"/>
         <v>-3.8478796226730116E-2</v>
       </c>
     </row>
     <row r="29" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q29" s="72" t="s">
+      <c r="Q29" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="73"/>
-      <c r="V29" s="73"/>
-      <c r="W29" s="74">
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="56">
         <f>SUM(W23:W28)</f>
         <v>-0.12052341597796143</v>
       </c>
     </row>
     <row r="30" spans="6:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q30" s="51" t="s">
+      <c r="Q30" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="75"/>
-      <c r="W30" s="76">
+      <c r="R30" s="65"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="65"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="57">
         <f>W29/((O14*O17))</f>
         <v>-5.3344449103799083E-2</v>
       </c>
     </row>
     <row r="35" spans="8:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H35" s="77" t="s">
+      <c r="H35" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="77"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="67"/>
     </row>
     <row r="36" spans="8:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="77"/>
-      <c r="N36" s="77"/>
-      <c r="O36" s="77"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="67"/>
     </row>
     <row r="37" spans="8:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="77"/>
-      <c r="N37" s="77"/>
-      <c r="O37" s="77"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
     </row>
     <row r="38" spans="8:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="77"/>
-      <c r="N38" s="77"/>
-      <c r="O38" s="77"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="67"/>
     </row>
     <row r="39" spans="8:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="77"/>
-      <c r="N39" s="77"/>
-      <c r="O39" s="77"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="67"/>
+      <c r="O39" s="67"/>
     </row>
     <row r="40" spans="8:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="77"/>
-      <c r="O40" s="77"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="67"/>
     </row>
     <row r="41" spans="8:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="77"/>
-      <c r="N41" s="77"/>
-      <c r="O41" s="77"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="67"/>
+      <c r="O41" s="67"/>
     </row>
     <row r="42" spans="8:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="77"/>
-      <c r="O42" s="77"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="67"/>
     </row>
     <row r="43" spans="8:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="77"/>
-      <c r="O43" s="77"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="67"/>
+      <c r="N43" s="67"/>
+      <c r="O43" s="67"/>
     </row>
     <row r="44" spans="8:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="77"/>
-      <c r="N44" s="77"/>
-      <c r="O44" s="77"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="67"/>
+      <c r="N44" s="67"/>
+      <c r="O44" s="67"/>
     </row>
     <row r="45" spans="8:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H45" s="77"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="77"/>
-      <c r="N45" s="77"/>
-      <c r="O45" s="77"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="67"/>
+      <c r="N45" s="67"/>
+      <c r="O45" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F14:N14"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:V12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="F17:N17"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="J19:N19"/>
     <mergeCell ref="R21:V21"/>
     <mergeCell ref="W21:W22"/>
     <mergeCell ref="Q29:V29"/>
     <mergeCell ref="Q30:V30"/>
     <mergeCell ref="H35:O45"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="F17:N17"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="J19:N19"/>
     <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:V12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:N14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
